--- a/500all/speech_level/speeches_CHRG-114hhrg95511.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95511.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,24 +52,15 @@
     <t>400618</t>
   </si>
   <si>
-    <t>Jim Costa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Chairman Rouzer, Members of the Subcommittee. I think this is an important matter that the Subcommittee provide its attention and oversight to for a host of reasons. I also appreciate the witnesses that are appearing before the Subcommittee, and look forward to their testimony.    The United States Agency for International Development, USAID, as we refer to it, and the Department of Agriculture's foreign service, USDA's FAS, must be commended for a history of long work that they do. And that is just the facts. But it is also very important, as we have this oversight hearing today, that we examine, for the purpose of the Agriculture Committee's oversight, to evaluate the implications from what I believe the traditional direct food assistance aid has done, and continues to do, versus the cash-based assistance effort.    And let me just put it out here very clearly so everybody understands it. I have a sense that the traditional direct food aid support is a much more meritorious way to provide the support for those who need it, as opposed to a cash-based assistance effort. Frankly, there are all sorts of issues out there that create problems in a cash-based assistance program, and the GAO, in their preliminary report of what I read, indicates that you are having a difficult time monitoring that and staying on top of it.    And, frankly, if you want to talk about giving food to needy people who are hungry, and you also want to have the corollary benefit of helping American farmers and ranchers and people, you are taking surplus food that is there, and you are giving it to the people who need it. And there is a lot less room when you do a direct transfer of food itself than the sort of shenanigans that can go on when you deal with cash-based assistance in some third world countries in which, frankly, there is a level of corruption that--let us acknowledge it for what it is: cronyism, these things happen, and we have less ability to monitor and to control.    The United States is the largest supplier of food aid. Now we have become the largest provider of cash-based assistance. And it is wonderful that we are in a position where we can help, with all the cornucopia of food products that we grow in our country to help those who are most in need. That is an important humanitarian thing to do, and we should. But, providing cash as an alternative is a poor substitute.    The Agricultural Act of 2014, which the Agriculture Committee spent many long hours--we all spent a lot of hours--working on making several improvements to the international food aid programs to provider greater flexibility to USAID, and to the United States Department of Agriculture's Foreign Agricultural Service. However, there appears, to me, to be an inherent flaw in the system, because despite the flexibility that we provided you, both for USAID and for USDA, in Congress we have obviously made cuts on your budget, and so we get that. We want you to do more with less.    But monitoring that, especially when you are looking at the dual application of the food assistance versus the cash, can be dealt with in a significant way by simply relying more on the direct food support, as opposed to the cash assistance, where there are much more requirements to monitor to avoid the sort of monies being put into the wrong hands, and never getting into the hands of the people who are hungry, and who need the food.    So we should do all we can to provide these agencies the support so that they can properly monitor how American tax dollars are being spent. That is what we all care about here. But we also care about doing the right thing. But we ask this in all our domestic programs, so I am going to look forward to the answers by the witnesses on questions we will ask on how these programs are actually being implemented. Because to provide assistance to hungry people around the world is incredibly important. It is a good part of American diplomacy as we deal in a more troubling world, and it provides American goodwill in areas where we have a lot of challenges. And I think, politically and diplomatically, that is important as well.    But for the food aid programs to provide the benefits to America's farmers, our ranchers, our transportation systems, to our docks to haul the food out, it also helps our economy. So for people who aren't in the Farm Belt, we move those excess products--they get shipped across the country, they get shipped to ports. People are working. And then, of course, they get sent to those countries where the need is the greatest. So the food aid programs provide benefit to America's farmers, ranchers, its agriculture economy, to its support workers, by moving those products abroad.    In my home State of California, we produce some of the best food and fiber that helps feed not only everybody in America, but also people around the world. So one of the problems that I see is that the in-kind donations, which a lot of my farmers provide when we have surplus crops, and we have crops that are sitting and being shelved, is that locally sourced products are not adequate, and do not come close to matching the quality of the food produced in the United States. Furthermore, based on conversations I have had with local producers, there is a greater network for monitoring commodity based food areas that I don't think we are taking advantage of, and I would like your comments there.    And, finally, I understand that a changing and global economy in many of the locations where these programs operate, it is necessary to be flexible. We get that. I know you need some assistance on flexibility. But we need to make sure that these programs are supported with the necessary resources, and I think that there is naturally a tendency--the cash-based is easier. I get that. It is easier to provide, have somebody write a check. But I think it is far more worthwhile and productive to provide the food, and there is a much greater assurance that that food is going to get in the hands of the people who need it the most.    So, again, I want to thank the witnesses. Mr. Chairman, I want to thank you for having this hearing today, and I look forward to the testimony by the witnesses.    The Chairman. Thank you, Mr. Costa. The chair would request that other Members submit their opening statements for the record so the witnesses may begin their testimony, and to ensure that there is ample time for questions. The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in order of their arrival, and I appreciate Members' understanding. Witnesses are asked to limit their oral presentations to 5 minutes. All written statements will be included for the record.    Now, I would like to welcome our witnesses to the table. First we have Mr. Thomas Melito, Director of International Affairs and Trade, U.S. Government Accountability Office here in Washington, D.C. Following him we have Ms. Catherine Trujillo, Acting Deputy Inspector General, U.S. Agency for International Development, Office of Inspector General here in Washington. And then finally we have Mr. Rod DeSmet, Deputy Assistant Inspector General for Audit, USDA Office of Inspector General, here in Washington as well.    Mr. Melito, please begin when you are ready.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Melito</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Melito. Chairman Rouzer, Ranking Member Costa, and Members of the Subcommittee, thank you for this opportunity to discuss our recent work reviewing international food assistance delivered through cash transfers and voucher programs funded and overseen by the U.S. Agency for International Development. For over 60 years the United States has provided assistance to food insecure countries, primarily in the form of food commodities procured in the United States and transported overseas. In recent years the United States has joined other major donors in increasingly providing food assistance in the form of cash or vouchers. In Fiscal Year 2014 the U.S. funded cash and voucher projects in 28 countries, totaling about $410 million, with the majority of this funding for the Syria crisis. The United States was the single largest donor of cash-based food assistance in 2014.    My testimony is based on a report which was released in March of this year. I will focus on three topics. First, USAID's process for awarding and modifying cash-based food assistance. Second, the extent to which USAID and its partners have implemented financial controls to help ensure appropriate oversight of such projects, and third, GAO's recommendations and USAID's response to them.    Regarding the first topic, GAO found that USAID followed its internal guidance when it awarded new cash-based food assistance grants. However, USAID lacks formal guidance when modifying these awards. Partners may propose cost or no cost modifications for a variety of reasons, such as an increase in the number of beneficiaries, or changing market conditions affecting food prices. In our review of 13 grant awards that had been modified, GAO found that cost modifications had increased the funding for these 13 awards from about $91 million to $626 million.    GAO also found that, although USAID requires partners to monitor market conditions, which is a key factor that may trigger an award modification, it does not provide guidance on when and how to respond to changing market conditions. Without guidance on modifying awards, including when market conditions change, USAID cannot hold its staff and implementing partners accountable for taking all necessary steps to justify the modification of awards.    Regarding the second topic, USAID relies on implementing partners for financial oversight of cash grants, but does not require them to conduct comprehensive risk assessments to planned financial oversight activities. In addition, it provides little related procedural guidance to partners and its own staff. For projects we analyzed in four case study countries, GAO found that neither USAID, nor its implementing partners, conducted comprehensive risk assessments to identify and mitigate financial vulnerabilities. Additionally, although USAID's partners had generally implemented financial controls over cash and voucher distributions that GAO had reviewed, some partners' guidance for the financial oversight had weaknesses, such as a lack of information on how to estimate and report on losses.    In addition, GAO found that USAID had limited guidance on financial activities, and provided no information to aid partners in estimating and reporting losses. As a result, partners may neglect to implement appropriate financial controls in areas that are most vulnerable to fraud, diversion, and misuse of cash funding. As we noted in our March report, several incidences of malfeasance had already surfaced in this program. It is essential that USAID learn from these circumstances and implement the necessary changes.    Regarding the third topic, our March 2015 report included recommendations to strengthen USAID's guidance for staff on approving award modifications, and guidance for partners on responding to changing market conditions. GAO also made recommendations to strengthen financial oversight of cash-based food assistance projects by addressing gaps in USAID's guidance on risk assessments and mitigation plans, and on financial control activities.    USAID concurred with the recommendations in the March 2015 report. Since that time, USAID has indicated to GAO that it has taken some actions to implement these recommendations. According to USAID, it has, among other efforts, issued written guidance on the review and approval of modifications to cash awards. In addition, USAID indicated that they now have a requirement for applicants to provide an assessment of risk of fraud or diversion, and controls in place to prevent any diversion. We appreciate USAID's efforts in response to our recommendations. We will work expeditiously with USAID to collect and review evidence, documenting its actions to determine whether they are sufficient to close, as implemented, any of the GAO recommendations.    Chairman Rouzer, Ranking Member Costa, and Members of the Subcommittee, this completes my prepared statement. I will be pleased to respond to any questions you may have.</t>
   </si>
   <si>
-    <t>Trujillo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Trujillo. Thank you. Chairman Rouzer, Ranking Member Costa, and Members of the Committee, I am pleased to appear before you today on behalf of the Office of Inspector General for USAID, and we appreciate the Committee's interest in our work to improve the effectiveness in international food aid programs. Let me just start out by saying that elements of risk are inherent in all of USAID programs, including food assistance.    USAID works in environments that are very vulnerable to fraud, waste, and abuse, and working in fragile countries where there are weak operational and financial systems, there is insufficient capacity, deteriorating infrastructure, it makes it ever so critical that USAID manage and design its programs, and then in considering each one of these risk elements. And for that reason we conduct our audits and our investigations in a way where we focus on the higher levels of risk that surround USAID assistance programs.    In the last 5 years we have conducted 12 performance audits and reviews, and reported almost 100 recommendations to USAID to promote the effectiveness and the management of their food aid programs. Together with our investigative work and our audit work, our work has produced more than $18 million in savings and cost recoveries for the U.S. Government.    Now, our work has primarily addressed the controls and the performance surrounding the efforts in transport, storage, monetizing, and distributing food aid commodities, along with assessing the results of those programs that USAID is designing to deal with: hunger, malnutrition, agricultural productivity, and helping countries be more resilient to conflict.    Across that supply chain distribution, our audits and our investigations have identified risks in all areas, in how USAID manages its food programs with Title II commodities. For example, let us just start with shipping and transport. Just last month the Department of Justice reached an $836,000 settlement with a shipping company that is used by USAID for food transport. Our investigations concluded that that company had been billing USAID for higher prices than it should have, and that had been going on for about 4 years.    We have also reported weaknesses in internal controls at USAID implementers' levels critical to safeguarding those commodities. Through our direct observations and our validation of inventory, we have identified discrepancies with what the implementer is saying is on hand, and what we have been able to verify. And that is often because there are weak internal controls. There is poor record-keeping. There is improper segregation of duties. There is mishandling of commodities. There are poor storage conditions. And these weak controls also make food vulnerable to theft as well. For example, in East Africa U.S. commodities were siphoned off, and they had been sold for an extended period of time. And, as a result of our investigation, USAID actually had to terminate this $100 million program.    And we have also identified problems with USAID's management of the programs that are designed to help those populations in need. Our work in Madagascar, for example, noted that implementing partners had designed different distribution methods, and, as a result of inconsistency, some beneficiaries were not getting the rations that they needed when they needed them the most. In Uganda we found poor program management, where some individuals were getting commodities that were not part of the targeted population.    In Haiti we found that cooperating sponsors had failed to adopt demonstrated best practices, and, as a result, the program failed to reach the optimized number of mothers with infants. And also in Haiti we saw overlapping with Title II programs and USAID programs. As a result, a few beneficiaries get more than what they are entitled to, and some get less.    In Somalia we found inconsistencies on how USAID vendors and sub-recipients were using best practices, with regards to vetting their vendors and their sub-recipients. We have reduced assurance in those areas that USAID is making sure that they are examining whether all these groups have any ties to armed, or terrorist groups, or any other prohibited parties.    We also audited USAID's approach to pre-positioning commodities in the Horn of Africa, and there we noted that USAID had not compared the respective costs and benefits of pre-positioning food in the international ports, compared to what it would cost to ship them from the United States, despite the fact that there was an earlier analysis that had demonstrated that shipping from an international area could cost up to seven times more.    Lack of key monitoring is a key finding, frequent with all our findings, and that often explains why these problems have gone unnoticed, and other problems that we have identified. For example, poor data quality. We have identified a lack of financial oversight, which the GAO report also recognized. And also, not complying with branding and marketing issues. Because of lack of monitoring, these issues are not identified in a timely manner, or they are identified when the audits are performed.    Monitoring deficiencies are of particular concern to us in conflicted area settings. A substantial amount of food that USAID gives is going to these types of areas, and because of security concerns USAID--U.S. direct hires cannot get out--Americans cannot get out and actually see these activities. And, therefore, we take very seriously any thefts or reports, and we actively investigate those, like in areas such as Syria.    Now, I don't want to just leave this on a negative point, because, as Congressman Costa said, this is an important program, and we have seen successes in in-kind commodities. We have talked to direct beneficiaries, who had chronic health issues, and they have shared with us that they have received these commodities, and their health has improved. We have spoken with farmers who said they are seeing improved productivity. They are actually seeing that they are able to now use new technologies that they are learning under the Food for Peace Program. So this is a positive aspect of the in-kind commodity programs.    Moving forward, we plan to continue to execute our oversight plans----</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t xml:space="preserve">    Ms. Trujillo. I apologize.    The Chairman. No problem. Mr. DeSmet?        STATEMENT OF RODNEY G. DeSMET, DEPUTY ASSISTANT</t>
   </si>
   <si>
-    <t>DeSmet</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSmet. Good morning, Chairman Rouzer, Ranking Member Costa, and Members of the Subcommittee. Thank you for this opportunity to discuss OIG's oversight of USDA' Food for Progress program. As you know, a large part of OIG's mission is to promote the efficiency and effectiveness of USDA programs, such as Food for Progress, by performing audits to reduce fraud, waste, and abuse. Our audits are designed to determine if programs are functioning as intended, and when we identify problems, we make recommendations that we believe will help USDA agencies better accomplish their missions.    FAS administers the Food for Progress program through agreements with various entities, including private voluntary organizations, or PVOs. FAS's responsibilities include monitoring these agreements, including the receipt and disposition of donated commodities, in-country oversight, and close out reviews.    Since 1999 OIG has conducted three audits addressing FAS's administration of the Food for Progress program. In these audits we evaluated the effectiveness of FAS's implementation of its corrective actions to prior audit recommendations. Although we have found improvements in FAS's administration of the program, we continue to report systemic internal control weaknesses. Many of these weaknesses could have been mitigated if FAS had effectively implemented corrective actions in response to OIG's earlier recommendations.    In response to our 1999 audit, FAS agreed to strengthen its management controls. However, in 2006, we found that FAS had not effectively implemented corrective actions to address previously reported weaknesses in its oversight of PVO agreements. We reported that FAS controls for monitoring PVOs could not provide reasonable assurance that USDA program objectives were being met, or that funds were being spent appropriately.    OIG commends FAS for taking several positive actions in response to our 2006 audit. However, many of the systemic deficiencies identified in 1999 and 2006 continue. In our 2014 report, OIG again reported that FAS does not have effective controls in place to monitor and close out its agreements with the PVOs. These weaknesses resulted in questioned and unsupported costs totaling over $685,000. As a result of these findings, OIG specifically recommended that FAS designate a senior management official with sufficient authority to ensure that all current and prior recommendations are fully addressed in a timely manner.    GAO, and private consulting firms contracted by FAS, have reported similar internal control weaknesses. In 2011 GAO recommended that FAS establish a monitoring process for measuring program progress and develop policies and procedures for closing out grant agreements. And in 2013, a private consultant reported that FAS still has significant internal control issues with respect to oversight and accountability. Based on our audits, together with work from GAO and independent consultants, we concluded that until FAS strengthens its management oversight and accountability, it cannot ensure that Federal resources expended on the Food for Progress program are being efficiently and effectively utilized.    This concludes my testimony. I again want to thank the Subcommittee for the opportunity to brief you today, and I welcome any questions you may have.</t>
   </si>
   <si>
@@ -172,18 +160,12 @@
     <t xml:space="preserve">    Mr. Costa. Thank you very much. My time has expired.    The Chairman. I noticed that the Chairman of the Committee, has just arrived.</t>
   </si>
   <si>
-    <t>Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. I will ask questions in the correct order.    The Chairman. Very good. I will turn to our friend from Florida, Mr. Yoho.</t>
   </si>
   <si>
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman, I appreciate this important Committee hearing. I appreciate you all being here. Mr. Melito, I appreciate your directness and unfettered reports.    The purpose is to make sure that the money that the American people are taxed for to provide relief to people in need go to the people that it was intended to. And when I look at the Public Law, this is not something new we are doing. We might be going into a new era, but when I look at the 1954 Public Law on agricultural trade and development, it states the law's original purpose was to expand international trade to promote economic stability of the American agriculture, to make maximum use of surplus ag commodities in the furtherance of foreign policy, and to stimulate the expansion of foreign trade in agricultural commodity products in the U.S.    And, of course, it has morphed since then, now it is a humanitarian goal, in addition to those others. And I find disturbing that--Ms. Trujillo, you were talking about that it took you 4 years to find a deficiency in the program, yet it hasn't been corrected. Take me through the process of you going into a country--because I know we have conflict countries, and we have non-conflict countries. Going into a country to set up a program where you set up that program, you initiate it, whether it is food, whether it is vouchers, whether it is cash--and I agree 100 percent with Mr. Costa's assessment. I would rather give commodities. I know it is more expensive, but it is more representative of America, and the taxpayers would be better served by doing that, as our farmers would be.    So when you go into a country, and you set up a program, I would assume you have a program that says, all right, this is the beginning of it, and we are going to distribute throughout the region, and these are the metrics we are going to set up, and we are going to follow those so that we can measure so there is no fraud, there is no waste, there is no abuse. How do you do that, and if you do it properly, there shouldn't be a miscommunication of where would the money go?</t>
   </si>
   <si>
@@ -226,9 +208,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho.--Chairman. I yield back. Thank you.    The Chairman. Ms. Plaskett?    Ms. Plaskett. Yes, good morning. I was looking at your statement, Ms. Trujillo, and I saw that you talked about over-reporting. There are problems of under-reporting and over-reporting, and that then plays a part in your determining whether there are efficiencies in the program. What would be over-reporting, and how would that impact your reports?</t>
   </si>
   <si>
@@ -295,9 +274,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I appreciate this hearing, and I appreciate the witnesses. It raises my curiosity, Ms. Trujillo, when you talked about some of the aid being siphoned off in Africa, and I would ask if you could flesh that out a little bit more on which countries, and how that actually happened?</t>
   </si>
   <si>
@@ -370,9 +346,6 @@
     <t>412673</t>
   </si>
   <si>
-    <t>Trent Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kelly. Thank you, Mr. Chairman, and thank you to the witnesses for being here today. Just a few brief questions. Number one, what percentage now of our aid goes with in-kind versus cash? What percentage would you say is each?</t>
   </si>
   <si>
@@ -502,9 +475,6 @@
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. I appreciate everybody being here this morning. As Chairman Conaway just said, this is an issue of very keen interest. I understand it is in many situations around the world you make even the best of a bad situation, perhaps is one way to characterize it, so I appreciate the difficulty in delivering food assistance in the most efficient method possible, but effort needs to be made to make that as good as we can.    I apologize if this question has been asked already, but much of the aid we are sending overseas is ending up in Syria, and understandably so, so I would like to ask Mr. Melito, as well as Ms. Trujillo, to talk a little bit about places like Syria, where we have inability to send personnel to actually make sure that the delivery is happening, what kind of oversight is in place to make sure that people in need are actually getting the assistance, versus perhaps some of the groups that we are actually in a continuing struggle with, such as ISIS, or the Syrian military? How can we assure the American people that aid is getting into the peoples' hands that we want it to, and not those that are trying to do us harm?</t>
   </si>
   <si>
@@ -547,9 +517,6 @@
     <t xml:space="preserve">    Mr. Newhouse. Thank you. Thank you, Mr. Chairman. I yield back.    The Chairman. I recognize the Ranking Member of the full Committee, Mr. Peterson.</t>
   </si>
   <si>
-    <t>Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. So I don't know if you could answer the first part of this question, which is if you are going to go to cash, how do you determine where to do that? Is it based on whether our commodities are undermining a legitimate agriculture market that might be in that country? I don't know exactly how that is done, but the more relevant question is in areas that need assistance, and need cash, are probably the most corrupt areas that there are. And how are you going to ever deal with that? You have indications of not being able to get this through the problems in those countries, and that is where it is most needed. Is there ever going to be a solution in those countries that you can rely on?</t>
   </si>
   <si>
@@ -617,9 +584,6 @@
   </si>
   <si>
     <t>412444</t>
-  </si>
-  <si>
-    <t>Vicky Hartzler</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman. Thank you, every one. I understand that while the implementation of cash-based assistance programs may be subject to some level of third party monitoring, there is virtually no monitoring by U.S. Government officials. Do I have that correct?</t>
@@ -1051,11 +1015,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1075,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1101,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1127,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1153,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1179,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1205,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1231,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1257,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1283,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1311,11 +1255,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1335,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1363,11 +1303,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1387,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1415,11 +1351,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1439,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1467,11 +1399,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1491,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1519,11 +1447,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1543,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1571,11 +1495,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1595,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1623,11 +1543,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1647,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1675,11 +1591,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1699,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1727,11 +1639,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1751,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1779,11 +1687,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1803,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1831,11 +1735,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1855,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1883,11 +1783,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1907,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1933,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1961,11 +1855,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1985,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2011,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2037,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2063,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2089,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2115,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2141,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>55</v>
-      </c>
-      <c r="H44" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2167,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2193,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2219,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2245,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2271,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2297,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2323,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2349,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2375,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2401,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2427,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2453,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2479,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2505,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>70</v>
-      </c>
-      <c r="H58" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2531,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2557,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2583,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2609,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2635,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2661,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2687,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2713,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2739,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2765,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2791,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2817,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2843,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2869,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
-      </c>
-      <c r="G72" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2895,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2921,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2947,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2973,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2999,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3025,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3051,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
+        <v>85</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>92</v>
-      </c>
-      <c r="G79" t="s">
-        <v>93</v>
-      </c>
-      <c r="H79" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3077,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3103,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3129,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3155,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3181,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3207,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3233,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
-      </c>
-      <c r="G86" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3259,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3285,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3311,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>92</v>
-      </c>
-      <c r="G89" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3337,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3363,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>92</v>
-      </c>
-      <c r="G91" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3389,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3415,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3441,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3467,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>92</v>
-      </c>
-      <c r="G95" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3493,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3519,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>92</v>
-      </c>
-      <c r="G97" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3545,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>117</v>
-      </c>
-      <c r="G98" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3571,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3597,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>117</v>
-      </c>
-      <c r="G100" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3623,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3649,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>117</v>
-      </c>
-      <c r="G102" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3675,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3701,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3727,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>117</v>
-      </c>
-      <c r="G105" t="s">
-        <v>118</v>
-      </c>
-      <c r="H105" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3753,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3779,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3805,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3831,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3857,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3883,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3909,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3935,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3961,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3987,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4013,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4039,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4065,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4091,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4117,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4143,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4169,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4195,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4221,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4247,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4273,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4299,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4325,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4351,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4377,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4403,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4429,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4455,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4481,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4507,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4533,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4559,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4585,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4611,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>52</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4637,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>161</v>
-      </c>
-      <c r="G140" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4663,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4689,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4715,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>161</v>
-      </c>
-      <c r="G143" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4741,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4767,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>161</v>
-      </c>
-      <c r="G145" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4793,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4819,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>161</v>
-      </c>
-      <c r="G147" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4845,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4871,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
-      </c>
-      <c r="G149" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4897,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>161</v>
-      </c>
-      <c r="G150" t="s">
+        <v>152</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
         <v>162</v>
-      </c>
-      <c r="H150" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4923,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4949,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>161</v>
-      </c>
-      <c r="G152" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4975,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5001,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>161</v>
-      </c>
-      <c r="G154" t="s">
-        <v>162</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5027,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5053,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5079,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5105,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5131,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5157,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5183,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5209,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5235,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5261,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5287,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
         <v>177</v>
-      </c>
-      <c r="H165" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5313,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5339,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5365,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5391,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5417,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5443,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5469,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5495,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5521,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5547,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5573,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5599,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>177</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5625,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>200</v>
-      </c>
-      <c r="G178" t="s">
-        <v>201</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5651,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5677,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>200</v>
-      </c>
-      <c r="G180" t="s">
-        <v>201</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5703,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5729,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>200</v>
-      </c>
-      <c r="G182" t="s">
-        <v>201</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5755,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5781,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>200</v>
-      </c>
-      <c r="G184" t="s">
-        <v>201</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5807,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5833,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>200</v>
-      </c>
-      <c r="G186" t="s">
-        <v>201</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5859,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5885,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
+        <v>189</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
         <v>200</v>
-      </c>
-      <c r="G188" t="s">
-        <v>201</v>
-      </c>
-      <c r="H188" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95511.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95511.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,15 +55,27 @@
     <t>400618</t>
   </si>
   <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Chairman Rouzer, Members of the Subcommittee. I think this is an important matter that the Subcommittee provide its attention and oversight to for a host of reasons. I also appreciate the witnesses that are appearing before the Subcommittee, and look forward to their testimony.    The United States Agency for International Development, USAID, as we refer to it, and the Department of Agriculture's foreign service, USDA's FAS, must be commended for a history of long work that they do. And that is just the facts. But it is also very important, as we have this oversight hearing today, that we examine, for the purpose of the Agriculture Committee's oversight, to evaluate the implications from what I believe the traditional direct food assistance aid has done, and continues to do, versus the cash-based assistance effort.    And let me just put it out here very clearly so everybody understands it. I have a sense that the traditional direct food aid support is a much more meritorious way to provide the support for those who need it, as opposed to a cash-based assistance effort. Frankly, there are all sorts of issues out there that create problems in a cash-based assistance program, and the GAO, in their preliminary report of what I read, indicates that you are having a difficult time monitoring that and staying on top of it.    And, frankly, if you want to talk about giving food to needy people who are hungry, and you also want to have the corollary benefit of helping American farmers and ranchers and people, you are taking surplus food that is there, and you are giving it to the people who need it. And there is a lot less room when you do a direct transfer of food itself than the sort of shenanigans that can go on when you deal with cash-based assistance in some third world countries in which, frankly, there is a level of corruption that--let us acknowledge it for what it is: cronyism, these things happen, and we have less ability to monitor and to control.    The United States is the largest supplier of food aid. Now we have become the largest provider of cash-based assistance. And it is wonderful that we are in a position where we can help, with all the cornucopia of food products that we grow in our country to help those who are most in need. That is an important humanitarian thing to do, and we should. But, providing cash as an alternative is a poor substitute.    The Agricultural Act of 2014, which the Agriculture Committee spent many long hours--we all spent a lot of hours--working on making several improvements to the international food aid programs to provider greater flexibility to USAID, and to the United States Department of Agriculture's Foreign Agricultural Service. However, there appears, to me, to be an inherent flaw in the system, because despite the flexibility that we provided you, both for USAID and for USDA, in Congress we have obviously made cuts on your budget, and so we get that. We want you to do more with less.    But monitoring that, especially when you are looking at the dual application of the food assistance versus the cash, can be dealt with in a significant way by simply relying more on the direct food support, as opposed to the cash assistance, where there are much more requirements to monitor to avoid the sort of monies being put into the wrong hands, and never getting into the hands of the people who are hungry, and who need the food.    So we should do all we can to provide these agencies the support so that they can properly monitor how American tax dollars are being spent. That is what we all care about here. But we also care about doing the right thing. But we ask this in all our domestic programs, so I am going to look forward to the answers by the witnesses on questions we will ask on how these programs are actually being implemented. Because to provide assistance to hungry people around the world is incredibly important. It is a good part of American diplomacy as we deal in a more troubling world, and it provides American goodwill in areas where we have a lot of challenges. And I think, politically and diplomatically, that is important as well.    But for the food aid programs to provide the benefits to America's farmers, our ranchers, our transportation systems, to our docks to haul the food out, it also helps our economy. So for people who aren't in the Farm Belt, we move those excess products--they get shipped across the country, they get shipped to ports. People are working. And then, of course, they get sent to those countries where the need is the greatest. So the food aid programs provide benefit to America's farmers, ranchers, its agriculture economy, to its support workers, by moving those products abroad.    In my home State of California, we produce some of the best food and fiber that helps feed not only everybody in America, but also people around the world. So one of the problems that I see is that the in-kind donations, which a lot of my farmers provide when we have surplus crops, and we have crops that are sitting and being shelved, is that locally sourced products are not adequate, and do not come close to matching the quality of the food produced in the United States. Furthermore, based on conversations I have had with local producers, there is a greater network for monitoring commodity based food areas that I don't think we are taking advantage of, and I would like your comments there.    And, finally, I understand that a changing and global economy in many of the locations where these programs operate, it is necessary to be flexible. We get that. I know you need some assistance on flexibility. But we need to make sure that these programs are supported with the necessary resources, and I think that there is naturally a tendency--the cash-based is easier. I get that. It is easier to provide, have somebody write a check. But I think it is far more worthwhile and productive to provide the food, and there is a much greater assurance that that food is going to get in the hands of the people who need it the most.    So, again, I want to thank the witnesses. Mr. Chairman, I want to thank you for having this hearing today, and I look forward to the testimony by the witnesses.    The Chairman. Thank you, Mr. Costa. The chair would request that other Members submit their opening statements for the record so the witnesses may begin their testimony, and to ensure that there is ample time for questions. The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in order of their arrival, and I appreciate Members' understanding. Witnesses are asked to limit their oral presentations to 5 minutes. All written statements will be included for the record.    Now, I would like to welcome our witnesses to the table. First we have Mr. Thomas Melito, Director of International Affairs and Trade, U.S. Government Accountability Office here in Washington, D.C. Following him we have Ms. Catherine Trujillo, Acting Deputy Inspector General, U.S. Agency for International Development, Office of Inspector General here in Washington. And then finally we have Mr. Rod DeSmet, Deputy Assistant Inspector General for Audit, USDA Office of Inspector General, here in Washington as well.    Mr. Melito, please begin when you are ready.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Melito</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Melito. Chairman Rouzer, Ranking Member Costa, and Members of the Subcommittee, thank you for this opportunity to discuss our recent work reviewing international food assistance delivered through cash transfers and voucher programs funded and overseen by the U.S. Agency for International Development. For over 60 years the United States has provided assistance to food insecure countries, primarily in the form of food commodities procured in the United States and transported overseas. In recent years the United States has joined other major donors in increasingly providing food assistance in the form of cash or vouchers. In Fiscal Year 2014 the U.S. funded cash and voucher projects in 28 countries, totaling about $410 million, with the majority of this funding for the Syria crisis. The United States was the single largest donor of cash-based food assistance in 2014.    My testimony is based on a report which was released in March of this year. I will focus on three topics. First, USAID's process for awarding and modifying cash-based food assistance. Second, the extent to which USAID and its partners have implemented financial controls to help ensure appropriate oversight of such projects, and third, GAO's recommendations and USAID's response to them.    Regarding the first topic, GAO found that USAID followed its internal guidance when it awarded new cash-based food assistance grants. However, USAID lacks formal guidance when modifying these awards. Partners may propose cost or no cost modifications for a variety of reasons, such as an increase in the number of beneficiaries, or changing market conditions affecting food prices. In our review of 13 grant awards that had been modified, GAO found that cost modifications had increased the funding for these 13 awards from about $91 million to $626 million.    GAO also found that, although USAID requires partners to monitor market conditions, which is a key factor that may trigger an award modification, it does not provide guidance on when and how to respond to changing market conditions. Without guidance on modifying awards, including when market conditions change, USAID cannot hold its staff and implementing partners accountable for taking all necessary steps to justify the modification of awards.    Regarding the second topic, USAID relies on implementing partners for financial oversight of cash grants, but does not require them to conduct comprehensive risk assessments to planned financial oversight activities. In addition, it provides little related procedural guidance to partners and its own staff. For projects we analyzed in four case study countries, GAO found that neither USAID, nor its implementing partners, conducted comprehensive risk assessments to identify and mitigate financial vulnerabilities. Additionally, although USAID's partners had generally implemented financial controls over cash and voucher distributions that GAO had reviewed, some partners' guidance for the financial oversight had weaknesses, such as a lack of information on how to estimate and report on losses.    In addition, GAO found that USAID had limited guidance on financial activities, and provided no information to aid partners in estimating and reporting losses. As a result, partners may neglect to implement appropriate financial controls in areas that are most vulnerable to fraud, diversion, and misuse of cash funding. As we noted in our March report, several incidences of malfeasance had already surfaced in this program. It is essential that USAID learn from these circumstances and implement the necessary changes.    Regarding the third topic, our March 2015 report included recommendations to strengthen USAID's guidance for staff on approving award modifications, and guidance for partners on responding to changing market conditions. GAO also made recommendations to strengthen financial oversight of cash-based food assistance projects by addressing gaps in USAID's guidance on risk assessments and mitigation plans, and on financial control activities.    USAID concurred with the recommendations in the March 2015 report. Since that time, USAID has indicated to GAO that it has taken some actions to implement these recommendations. According to USAID, it has, among other efforts, issued written guidance on the review and approval of modifications to cash awards. In addition, USAID indicated that they now have a requirement for applicants to provide an assessment of risk of fraud or diversion, and controls in place to prevent any diversion. We appreciate USAID's efforts in response to our recommendations. We will work expeditiously with USAID to collect and review evidence, documenting its actions to determine whether they are sufficient to close, as implemented, any of the GAO recommendations.    Chairman Rouzer, Ranking Member Costa, and Members of the Subcommittee, this completes my prepared statement. I will be pleased to respond to any questions you may have.</t>
   </si>
   <si>
+    <t>Trujillo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Trujillo. Thank you. Chairman Rouzer, Ranking Member Costa, and Members of the Committee, I am pleased to appear before you today on behalf of the Office of Inspector General for USAID, and we appreciate the Committee's interest in our work to improve the effectiveness in international food aid programs. Let me just start out by saying that elements of risk are inherent in all of USAID programs, including food assistance.    USAID works in environments that are very vulnerable to fraud, waste, and abuse, and working in fragile countries where there are weak operational and financial systems, there is insufficient capacity, deteriorating infrastructure, it makes it ever so critical that USAID manage and design its programs, and then in considering each one of these risk elements. And for that reason we conduct our audits and our investigations in a way where we focus on the higher levels of risk that surround USAID assistance programs.    In the last 5 years we have conducted 12 performance audits and reviews, and reported almost 100 recommendations to USAID to promote the effectiveness and the management of their food aid programs. Together with our investigative work and our audit work, our work has produced more than $18 million in savings and cost recoveries for the U.S. Government.    Now, our work has primarily addressed the controls and the performance surrounding the efforts in transport, storage, monetizing, and distributing food aid commodities, along with assessing the results of those programs that USAID is designing to deal with: hunger, malnutrition, agricultural productivity, and helping countries be more resilient to conflict.    Across that supply chain distribution, our audits and our investigations have identified risks in all areas, in how USAID manages its food programs with Title II commodities. For example, let us just start with shipping and transport. Just last month the Department of Justice reached an $836,000 settlement with a shipping company that is used by USAID for food transport. Our investigations concluded that that company had been billing USAID for higher prices than it should have, and that had been going on for about 4 years.    We have also reported weaknesses in internal controls at USAID implementers' levels critical to safeguarding those commodities. Through our direct observations and our validation of inventory, we have identified discrepancies with what the implementer is saying is on hand, and what we have been able to verify. And that is often because there are weak internal controls. There is poor record-keeping. There is improper segregation of duties. There is mishandling of commodities. There are poor storage conditions. And these weak controls also make food vulnerable to theft as well. For example, in East Africa U.S. commodities were siphoned off, and they had been sold for an extended period of time. And, as a result of our investigation, USAID actually had to terminate this $100 million program.    And we have also identified problems with USAID's management of the programs that are designed to help those populations in need. Our work in Madagascar, for example, noted that implementing partners had designed different distribution methods, and, as a result of inconsistency, some beneficiaries were not getting the rations that they needed when they needed them the most. In Uganda we found poor program management, where some individuals were getting commodities that were not part of the targeted population.    In Haiti we found that cooperating sponsors had failed to adopt demonstrated best practices, and, as a result, the program failed to reach the optimized number of mothers with infants. And also in Haiti we saw overlapping with Title II programs and USAID programs. As a result, a few beneficiaries get more than what they are entitled to, and some get less.    In Somalia we found inconsistencies on how USAID vendors and sub-recipients were using best practices, with regards to vetting their vendors and their sub-recipients. We have reduced assurance in those areas that USAID is making sure that they are examining whether all these groups have any ties to armed, or terrorist groups, or any other prohibited parties.    We also audited USAID's approach to pre-positioning commodities in the Horn of Africa, and there we noted that USAID had not compared the respective costs and benefits of pre-positioning food in the international ports, compared to what it would cost to ship them from the United States, despite the fact that there was an earlier analysis that had demonstrated that shipping from an international area could cost up to seven times more.    Lack of key monitoring is a key finding, frequent with all our findings, and that often explains why these problems have gone unnoticed, and other problems that we have identified. For example, poor data quality. We have identified a lack of financial oversight, which the GAO report also recognized. And also, not complying with branding and marketing issues. Because of lack of monitoring, these issues are not identified in a timely manner, or they are identified when the audits are performed.    Monitoring deficiencies are of particular concern to us in conflicted area settings. A substantial amount of food that USAID gives is going to these types of areas, and because of security concerns USAID--U.S. direct hires cannot get out--Americans cannot get out and actually see these activities. And, therefore, we take very seriously any thefts or reports, and we actively investigate those, like in areas such as Syria.    Now, I don't want to just leave this on a negative point, because, as Congressman Costa said, this is an important program, and we have seen successes in in-kind commodities. We have talked to direct beneficiaries, who had chronic health issues, and they have shared with us that they have received these commodities, and their health has improved. We have spoken with farmers who said they are seeing improved productivity. They are actually seeing that they are able to now use new technologies that they are learning under the Food for Peace Program. So this is a positive aspect of the in-kind commodity programs.    Moving forward, we plan to continue to execute our oversight plans----</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t xml:space="preserve">    Ms. Trujillo. I apologize.    The Chairman. No problem. Mr. DeSmet?        STATEMENT OF RODNEY G. DeSMET, DEPUTY ASSISTANT</t>
   </si>
   <si>
+    <t>DeSmet</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSmet. Good morning, Chairman Rouzer, Ranking Member Costa, and Members of the Subcommittee. Thank you for this opportunity to discuss OIG's oversight of USDA' Food for Progress program. As you know, a large part of OIG's mission is to promote the efficiency and effectiveness of USDA programs, such as Food for Progress, by performing audits to reduce fraud, waste, and abuse. Our audits are designed to determine if programs are functioning as intended, and when we identify problems, we make recommendations that we believe will help USDA agencies better accomplish their missions.    FAS administers the Food for Progress program through agreements with various entities, including private voluntary organizations, or PVOs. FAS's responsibilities include monitoring these agreements, including the receipt and disposition of donated commodities, in-country oversight, and close out reviews.    Since 1999 OIG has conducted three audits addressing FAS's administration of the Food for Progress program. In these audits we evaluated the effectiveness of FAS's implementation of its corrective actions to prior audit recommendations. Although we have found improvements in FAS's administration of the program, we continue to report systemic internal control weaknesses. Many of these weaknesses could have been mitigated if FAS had effectively implemented corrective actions in response to OIG's earlier recommendations.    In response to our 1999 audit, FAS agreed to strengthen its management controls. However, in 2006, we found that FAS had not effectively implemented corrective actions to address previously reported weaknesses in its oversight of PVO agreements. We reported that FAS controls for monitoring PVOs could not provide reasonable assurance that USDA program objectives were being met, or that funds were being spent appropriately.    OIG commends FAS for taking several positive actions in response to our 2006 audit. However, many of the systemic deficiencies identified in 1999 and 2006 continue. In our 2014 report, OIG again reported that FAS does not have effective controls in place to monitor and close out its agreements with the PVOs. These weaknesses resulted in questioned and unsupported costs totaling over $685,000. As a result of these findings, OIG specifically recommended that FAS designate a senior management official with sufficient authority to ensure that all current and prior recommendations are fully addressed in a timely manner.    GAO, and private consulting firms contracted by FAS, have reported similar internal control weaknesses. In 2011 GAO recommended that FAS establish a monitoring process for measuring program progress and develop policies and procedures for closing out grant agreements. And in 2013, a private consultant reported that FAS still has significant internal control issues with respect to oversight and accountability. Based on our audits, together with work from GAO and independent consultants, we concluded that until FAS strengthens its management oversight and accountability, it cannot ensure that Federal resources expended on the Food for Progress program are being efficiently and effectively utilized.    This concludes my testimony. I again want to thank the Subcommittee for the opportunity to brief you today, and I welcome any questions you may have.</t>
   </si>
   <si>
@@ -160,12 +178,21 @@
     <t xml:space="preserve">    Mr. Costa. Thank you very much. My time has expired.    The Chairman. I noticed that the Chairman of the Committee, has just arrived.</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conaway. I will ask questions in the correct order.    The Chairman. Very good. I will turn to our friend from Florida, Mr. Yoho.</t>
   </si>
   <si>
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman, I appreciate this important Committee hearing. I appreciate you all being here. Mr. Melito, I appreciate your directness and unfettered reports.    The purpose is to make sure that the money that the American people are taxed for to provide relief to people in need go to the people that it was intended to. And when I look at the Public Law, this is not something new we are doing. We might be going into a new era, but when I look at the 1954 Public Law on agricultural trade and development, it states the law's original purpose was to expand international trade to promote economic stability of the American agriculture, to make maximum use of surplus ag commodities in the furtherance of foreign policy, and to stimulate the expansion of foreign trade in agricultural commodity products in the U.S.    And, of course, it has morphed since then, now it is a humanitarian goal, in addition to those others. And I find disturbing that--Ms. Trujillo, you were talking about that it took you 4 years to find a deficiency in the program, yet it hasn't been corrected. Take me through the process of you going into a country--because I know we have conflict countries, and we have non-conflict countries. Going into a country to set up a program where you set up that program, you initiate it, whether it is food, whether it is vouchers, whether it is cash--and I agree 100 percent with Mr. Costa's assessment. I would rather give commodities. I know it is more expensive, but it is more representative of America, and the taxpayers would be better served by doing that, as our farmers would be.    So when you go into a country, and you set up a program, I would assume you have a program that says, all right, this is the beginning of it, and we are going to distribute throughout the region, and these are the metrics we are going to set up, and we are going to follow those so that we can measure so there is no fraud, there is no waste, there is no abuse. How do you do that, and if you do it properly, there shouldn't be a miscommunication of where would the money go?</t>
   </si>
   <si>
@@ -208,6 +235,12 @@
     <t>412659</t>
   </si>
   <si>
+    <t>Plaskett</t>
+  </si>
+  <si>
+    <t>Stacey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho.--Chairman. I yield back. Thank you.    The Chairman. Ms. Plaskett?    Ms. Plaskett. Yes, good morning. I was looking at your statement, Ms. Trujillo, and I saw that you talked about over-reporting. There are problems of under-reporting and over-reporting, and that then plays a part in your determining whether there are efficiencies in the program. What would be over-reporting, and how would that impact your reports?</t>
   </si>
   <si>
@@ -274,6 +307,12 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I appreciate this hearing, and I appreciate the witnesses. It raises my curiosity, Ms. Trujillo, when you talked about some of the aid being siphoned off in Africa, and I would ask if you could flesh that out a little bit more on which countries, and how that actually happened?</t>
   </si>
   <si>
@@ -346,6 +385,12 @@
     <t>412673</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kelly. Thank you, Mr. Chairman, and thank you to the witnesses for being here today. Just a few brief questions. Number one, what percentage now of our aid goes with in-kind versus cash? What percentage would you say is each?</t>
   </si>
   <si>
@@ -475,6 +520,12 @@
     <t>412660</t>
   </si>
   <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. I appreciate everybody being here this morning. As Chairman Conaway just said, this is an issue of very keen interest. I understand it is in many situations around the world you make even the best of a bad situation, perhaps is one way to characterize it, so I appreciate the difficulty in delivering food assistance in the most efficient method possible, but effort needs to be made to make that as good as we can.    I apologize if this question has been asked already, but much of the aid we are sending overseas is ending up in Syria, and understandably so, so I would like to ask Mr. Melito, as well as Ms. Trujillo, to talk a little bit about places like Syria, where we have inability to send personnel to actually make sure that the delivery is happening, what kind of oversight is in place to make sure that people in need are actually getting the assistance, versus perhaps some of the groups that we are actually in a continuing struggle with, such as ISIS, or the Syrian military? How can we assure the American people that aid is getting into the peoples' hands that we want it to, and not those that are trying to do us harm?</t>
   </si>
   <si>
@@ -517,6 +568,9 @@
     <t xml:space="preserve">    Mr. Newhouse. Thank you. Thank you, Mr. Chairman. I yield back.    The Chairman. I recognize the Ranking Member of the full Committee, Mr. Peterson.</t>
   </si>
   <si>
+    <t>Peterson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. So I don't know if you could answer the first part of this question, which is if you are going to go to cash, how do you determine where to do that? Is it based on whether our commodities are undermining a legitimate agriculture market that might be in that country? I don't know exactly how that is done, but the more relevant question is in areas that need assistance, and need cash, are probably the most corrupt areas that there are. And how are you going to ever deal with that? You have indications of not being able to get this through the problems in those countries, and that is where it is most needed. Is there ever going to be a solution in those countries that you can rely on?</t>
   </si>
   <si>
@@ -584,6 +638,12 @@
   </si>
   <si>
     <t>412444</t>
+  </si>
+  <si>
+    <t>Hartzler</t>
+  </si>
+  <si>
+    <t>Vicky</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman. Thank you, every one. I understand that while the implementation of cash-based assistance programs may be subject to some level of third party monitoring, there is virtually no monitoring by U.S. Government officials. Do I have that correct?</t>
@@ -965,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,7 +1033,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,4493 +1055,5181 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
       <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G50" t="s">
+        <v>57</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
       <c r="H62" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>73</v>
+      </c>
       <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G72" t="s">
+        <v>73</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>97</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G75" t="s">
+        <v>97</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G77" t="s">
+        <v>97</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G79" t="s">
+        <v>97</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G81" t="s">
+        <v>97</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>85</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G83" t="s">
+        <v>97</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>85</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G85" t="s">
+        <v>97</v>
+      </c>
       <c r="H85" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>85</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G86" t="s">
+        <v>97</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>85</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G88" t="s">
+        <v>97</v>
+      </c>
       <c r="H88" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>85</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G89" t="s">
+        <v>97</v>
+      </c>
       <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>85</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G91" t="s">
+        <v>97</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>85</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G95" t="s">
+        <v>97</v>
+      </c>
       <c r="H95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>85</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G97" t="s">
+        <v>97</v>
+      </c>
       <c r="H97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G98" t="s">
+        <v>123</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G100" t="s">
+        <v>123</v>
+      </c>
       <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G102" t="s">
+        <v>123</v>
+      </c>
       <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>109</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G105" t="s">
+        <v>123</v>
+      </c>
       <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>54</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>54</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>54</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>54</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>54</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>54</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>54</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>54</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>54</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>54</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>54</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>54</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>54</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>54</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>54</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>54</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>152</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G140" t="s">
+        <v>168</v>
+      </c>
       <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>152</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G143" t="s">
+        <v>168</v>
+      </c>
       <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>152</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G145" t="s">
+        <v>168</v>
+      </c>
       <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>152</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G147" t="s">
+        <v>168</v>
+      </c>
       <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>152</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G149" t="s">
+        <v>168</v>
+      </c>
       <c r="H149" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>152</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G150" t="s">
+        <v>168</v>
+      </c>
       <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>152</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G152" t="s">
+        <v>168</v>
+      </c>
       <c r="H152" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>152</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G154" t="s">
+        <v>168</v>
+      </c>
       <c r="H154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>184</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>184</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>184</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>184</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G163" t="s">
+        <v>184</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G165" t="s">
+        <v>184</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>184</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G169" t="s">
+        <v>184</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G170" t="s">
+        <v>19</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G171" t="s">
+        <v>184</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>19</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>184</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G175" t="s">
+        <v>184</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G177" t="s">
+        <v>184</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>189</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G178" t="s">
+        <v>208</v>
+      </c>
       <c r="H178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I178" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>189</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G180" t="s">
+        <v>208</v>
+      </c>
       <c r="H180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I180" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>189</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G182" t="s">
+        <v>208</v>
+      </c>
       <c r="H182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>13</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G183" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>189</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G184" t="s">
+        <v>208</v>
+      </c>
       <c r="H184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I184" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G185" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>189</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G186" t="s">
+        <v>208</v>
+      </c>
       <c r="H186" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I186" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G187" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>189</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G188" t="s">
+        <v>208</v>
+      </c>
       <c r="H188" t="s">
-        <v>200</v>
+        <v>209</v>
+      </c>
+      <c r="I188" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95511.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95511.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400618</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Costa</t>
   </si>
   <si>
@@ -185,6 +191,9 @@
   </si>
   <si>
     <t>412525</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Yoho</t>
@@ -1025,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,7 +1042,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,5178 +1067,5492 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G73" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I75" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G77" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G79" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G81" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H81" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G83" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G85" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H85" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G86" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H86" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G88" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G89" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H89" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H91" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G95" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G97" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G98" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G100" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I100" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G102" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G105" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="J105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>54</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>56</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s">
-        <v>54</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>56</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s">
-        <v>54</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s">
-        <v>54</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>56</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s">
-        <v>54</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s">
-        <v>54</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>56</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>54</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>56</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>54</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>56</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>54</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>56</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>54</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>21</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>54</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>56</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>21</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>54</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>56</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>21</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>54</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>56</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>21</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>54</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>56</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>21</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>54</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>56</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>21</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s">
-        <v>54</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>56</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>21</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s">
-        <v>54</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>56</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s">
-        <v>19</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>21</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s">
-        <v>54</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>56</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G140" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I140" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s">
-        <v>19</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>21</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G143" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I143" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G145" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I145" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>19</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>21</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G147" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="H147" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I147" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>21</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G149" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="H149" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I149" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G150" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="H150" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I150" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s">
-        <v>19</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>21</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G152" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="H152" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>21</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G154" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="H154" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I154" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s">
-        <v>184</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>187</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s">
-        <v>17</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s">
-        <v>184</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s">
-        <v>17</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s">
-        <v>184</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>187</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s">
-        <v>17</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" t="s">
-        <v>184</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>187</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s">
-        <v>17</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s">
-        <v>184</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>187</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s">
-        <v>17</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s">
-        <v>184</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>187</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s">
-        <v>17</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s">
-        <v>184</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>187</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s">
-        <v>17</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>19</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s">
-        <v>184</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>187</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s">
-        <v>19</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>21</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s">
-        <v>184</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>187</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" t="s">
-        <v>19</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>21</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s">
-        <v>184</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>187</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" t="s">
-        <v>17</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s">
-        <v>184</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>187</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
-      </c>
-      <c r="G176" t="s">
-        <v>17</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s">
-        <v>184</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>187</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G178" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H178" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I178" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J178" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s">
-        <v>17</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G180" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H180" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I180" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s">
-        <v>17</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G182" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I182" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s">
-        <v>17</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>19</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G184" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I184" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J184" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" t="s">
-        <v>17</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>19</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G186" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I186" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J186" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s">
-        <v>19</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>21</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G188" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H188" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I188" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="J188" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
